--- a/заказы/статистика филиалы/2024/01,24/17,01,24 КИ/дв 17,01,24 млрсч.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/17,01,24 КИ/дв 17,01,24 млрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\17,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\17,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2EC298-BB2D-437F-A1AD-18DE491E1D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F20092E-8C48-438C-A976-BB89AD88985D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>Период: 10.01.2024 - 17.01.2024</t>
   </si>
@@ -284,9 +284,6 @@
     <t>опт</t>
   </si>
   <si>
-    <t>заказ в дороге</t>
-  </si>
-  <si>
     <t>ср</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
   </si>
   <si>
     <t>запас без заказа</t>
-  </si>
-  <si>
-    <t>коментарий</t>
   </si>
   <si>
     <t>вес</t>
@@ -351,6 +345,15 @@
   </si>
   <si>
     <t>20,01,(4)</t>
+  </si>
+  <si>
+    <t>заказ в пути</t>
+  </si>
+  <si>
+    <t>ср нов</t>
+  </si>
+  <si>
+    <t>комментарии</t>
   </si>
 </sst>
 </file>
@@ -6651,7 +6654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomLeft" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6715,59 +6718,59 @@
         <v>81</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" s="30" t="s">
+      <c r="S3" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="AD3" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AE3" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6792,53 +6795,53 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="S4" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>104</v>
-      </c>
       <c r="U4" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB4" s="13"/>
       <c r="AC4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE4" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="AD4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -9820,7 +9823,7 @@
     </row>
     <row r="35" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
@@ -13464,7 +13467,7 @@
     </row>
     <row r="72" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
